--- a/Dokumente/Nachweise_offiziell/2017_Juni.xlsx
+++ b/Dokumente/Nachweise_offiziell/2017_Juni.xlsx
@@ -40,6 +40,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -296,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -368,13 +371,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="medium"/>
@@ -421,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -526,15 +522,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -578,7 +570,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,8 +657,8 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,15 +813,15 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
         <f aca="false">IF(I12 &gt; 0, DATE($K$12, $J$12, I12), 0)</f>
-        <v>41425</v>
+        <v>41428</v>
       </c>
       <c r="B12" s="17" t="n">
         <f aca="false">A12</f>
-        <v>41425</v>
+        <v>41428</v>
       </c>
       <c r="C12" s="18" t="str">
         <f aca="false">IF(G12 &gt; 0, TEXT(G12,"hh:mm")&amp;"-"&amp;TEXT(G12+(H12/24),"hh:mm"), 0)</f>
-        <v>16:50-17:20</v>
+        <v>18:00-18:30</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>17</v>
@@ -839,13 +831,13 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="G12" s="20" t="n">
-        <v>0.701388888888889</v>
+        <v>0.75</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="I12" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" s="23" t="n">
         <v>6</v>
@@ -857,15 +849,15 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <f aca="false">IF(I13 &gt; 0, DATE($K$12, $J$12, I13), 0)</f>
-        <v>41426</v>
+        <v>41430</v>
       </c>
       <c r="B13" s="17" t="n">
         <f aca="false">A13</f>
-        <v>41426</v>
+        <v>41430</v>
       </c>
       <c r="C13" s="18" t="str">
         <f aca="false">IF(G13 &gt; 0, TEXT(G13,"hh:mm")&amp;"-"&amp;TEXT(G13+(H13/24),"hh:mm"), 0)</f>
-        <v>11:15-11:45</v>
+        <v>19:20-19:50</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>17</v>
@@ -875,13 +867,13 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="G13" s="20" t="n">
-        <v>0.46875</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="I13" s="22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -889,31 +881,32 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="n">
         <f aca="false">IF(I14 &gt; 0, DATE($K$12, $J$12, I14), 0)</f>
-        <v>41428</v>
+        <v>41432</v>
       </c>
       <c r="B14" s="17" t="n">
         <f aca="false">A14</f>
-        <v>41428</v>
+        <v>41432</v>
       </c>
       <c r="C14" s="18" t="str">
         <f aca="false">IF(G14 &gt; 0, TEXT(G14,"hh:mm")&amp;"-"&amp;TEXT(G14+(H14/24),"hh:mm"), 0)</f>
-        <v>18:00-18:30</v>
+        <v>14:10-14:50</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="19" t="n">
         <f aca="false">H14/24</f>
-        <v>0.0208333333333333</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="G14" s="20" t="n">
-        <v>0.75</v>
+        <v>0.590277777777778</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>0.5</v>
+        <f aca="false">2/3</f>
+        <v>0.666666666666667</v>
       </c>
       <c r="I14" s="22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -921,31 +914,32 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="n">
         <f aca="false">IF(I15 &gt; 0, DATE($K$12, $J$12, I15), 0)</f>
-        <v>41430</v>
+        <v>41434</v>
       </c>
       <c r="B15" s="17" t="n">
         <f aca="false">A15</f>
-        <v>41430</v>
+        <v>41434</v>
       </c>
       <c r="C15" s="18" t="str">
         <f aca="false">IF(G15 &gt; 0, TEXT(G15,"hh:mm")&amp;"-"&amp;TEXT(G15+(H15/24),"hh:mm"), 0)</f>
-        <v>19:20-19:50</v>
+        <v>15:00-15:20</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="19" t="n">
         <f aca="false">H15/24</f>
-        <v>0.0208333333333333</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="G15" s="20" t="n">
-        <v>0.805555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>0.5</v>
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
       </c>
       <c r="I15" s="22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -953,32 +947,31 @@
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="n">
         <f aca="false">IF(I16 &gt; 0, DATE($K$12, $J$12, I16), 0)</f>
-        <v>41432</v>
+        <v>41435</v>
       </c>
       <c r="B16" s="17" t="n">
         <f aca="false">A16</f>
-        <v>41432</v>
+        <v>41435</v>
       </c>
       <c r="C16" s="18" t="str">
         <f aca="false">IF(G16 &gt; 0, TEXT(G16,"hh:mm")&amp;"-"&amp;TEXT(G16+(H16/24),"hh:mm"), 0)</f>
-        <v>14:10-14:50</v>
+        <v>17:00-17:30</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="19" t="n">
         <f aca="false">H16/24</f>
-        <v>0.0277777777777778</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G16" s="20" t="n">
-        <v>0.590277777777778</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="H16" s="21" t="n">
-        <f aca="false">2/3</f>
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -986,32 +979,31 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="n">
         <f aca="false">IF(I17 &gt; 0, DATE($K$12, $J$12, I17), 0)</f>
-        <v>41434</v>
+        <v>41436</v>
       </c>
       <c r="B17" s="17" t="n">
         <f aca="false">A17</f>
-        <v>41434</v>
+        <v>41436</v>
       </c>
       <c r="C17" s="18" t="str">
         <f aca="false">IF(G17 &gt; 0, TEXT(G17,"hh:mm")&amp;"-"&amp;TEXT(G17+(H17/24),"hh:mm"), 0)</f>
-        <v>15:00-15:20</v>
+        <v>13:10-13:40</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="19" t="n">
         <f aca="false">H17/24</f>
-        <v>0.0138888888888889</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G17" s="20" t="n">
-        <v>0.625</v>
+        <v>0.548611111111111</v>
       </c>
       <c r="H17" s="21" t="n">
-        <f aca="false">1/3</f>
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
@@ -1019,32 +1011,31 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="n">
         <f aca="false">IF(I18 &gt; 0, DATE($K$12, $J$12, I18), 0)</f>
-        <v>41435</v>
+        <v>41437</v>
       </c>
       <c r="B18" s="17" t="n">
         <f aca="false">A18</f>
-        <v>41435</v>
+        <v>41437</v>
       </c>
       <c r="C18" s="18" t="str">
         <f aca="false">IF(G18 &gt; 0, TEXT(G18,"hh:mm")&amp;"-"&amp;TEXT(G18+(H18/24),"hh:mm"), 0)</f>
-        <v>17:00-17:20</v>
+        <v>23:30-00:00</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="19" t="n">
         <f aca="false">H18/24</f>
-        <v>0.0138888888888889</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G18" s="20" t="n">
-        <v>0.708333333333333</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="H18" s="21" t="n">
-        <f aca="false">1/3</f>
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -1052,15 +1043,15 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <f aca="false">IF(I19 &gt; 0, DATE($K$12, $J$12, I19), 0)</f>
-        <v>41436</v>
+        <v>41438</v>
       </c>
       <c r="B19" s="17" t="n">
         <f aca="false">A19</f>
-        <v>41436</v>
+        <v>41438</v>
       </c>
       <c r="C19" s="18" t="str">
         <f aca="false">IF(G19 &gt; 0, TEXT(G19,"hh:mm")&amp;"-"&amp;TEXT(G19+(H19/24),"hh:mm"), 0)</f>
-        <v>13:10-13:40</v>
+        <v>02:00-02:30</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>17</v>
@@ -1070,13 +1061,13 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="G19" s="20" t="n">
-        <v>0.548611111111111</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -1084,31 +1075,31 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <f aca="false">IF(I20 &gt; 0, DATE($K$12, $J$12, I20), 0)</f>
-        <v>41437</v>
+        <v>41439</v>
       </c>
       <c r="B20" s="17" t="n">
         <f aca="false">A20</f>
-        <v>41437</v>
+        <v>41439</v>
       </c>
       <c r="C20" s="18" t="str">
         <f aca="false">IF(G20 &gt; 0, TEXT(G20,"hh:mm")&amp;"-"&amp;TEXT(G20+(H20/24),"hh:mm"), 0)</f>
-        <v>23:30-00:00</v>
+        <v>15:00-16:00</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="19" t="n">
         <f aca="false">H20/24</f>
-        <v>0.0208333333333333</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="G20" s="20" t="n">
-        <v>0.979166666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -1116,31 +1107,31 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <f aca="false">IF(I21 &gt; 0, DATE($K$12, $J$12, I21), 0)</f>
-        <v>41438</v>
+        <v>41440</v>
       </c>
       <c r="B21" s="17" t="n">
         <f aca="false">A21</f>
-        <v>41438</v>
+        <v>41440</v>
       </c>
       <c r="C21" s="18" t="str">
         <f aca="false">IF(G21 &gt; 0, TEXT(G21,"hh:mm")&amp;"-"&amp;TEXT(G21+(H21/24),"hh:mm"), 0)</f>
-        <v>02:00-02:30</v>
+        <v>12:00-13:30</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="19" t="n">
         <f aca="false">H21/24</f>
-        <v>0.0208333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="G21" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="21" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I21" s="22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -1148,31 +1139,31 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="n">
         <f aca="false">IF(I22 &gt; 0, DATE($K$12, $J$12, I22), 0)</f>
-        <v>41439</v>
+        <v>41442</v>
       </c>
       <c r="B22" s="17" t="n">
         <f aca="false">A22</f>
-        <v>41439</v>
+        <v>41442</v>
       </c>
       <c r="C22" s="18" t="str">
         <f aca="false">IF(G22 &gt; 0, TEXT(G22,"hh:mm")&amp;"-"&amp;TEXT(G22+(H22/24),"hh:mm"), 0)</f>
-        <v>15:00-16:00</v>
+        <v>17:00-17:30</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="19" t="n">
         <f aca="false">H22/24</f>
-        <v>0.0416666666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G22" s="20" t="n">
-        <v>0.625</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="H22" s="21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -1180,234 +1171,288 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="n">
         <f aca="false">IF(I23 &gt; 0, DATE($K$12, $J$12, I23), 0)</f>
-        <v>0</v>
+        <v>41443</v>
       </c>
       <c r="B23" s="17" t="n">
         <f aca="false">A23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="18" t="n">
+        <v>41443</v>
+      </c>
+      <c r="C23" s="18" t="str">
         <f aca="false">IF(G23 &gt; 0, TEXT(G23,"hh:mm")&amp;"-"&amp;TEXT(G23+(H23/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>20:00-20:30</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="19" t="n">
         <f aca="false">H23/24</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>19</v>
+      </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <f aca="false">IF(I24 &gt; 0, DATE($K$12, $J$12, I24), 0)</f>
-        <v>0</v>
+        <v>41445</v>
       </c>
       <c r="B24" s="17" t="n">
         <f aca="false">A24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="18" t="n">
+        <v>41445</v>
+      </c>
+      <c r="C24" s="18" t="str">
         <f aca="false">IF(G24 &gt; 0, TEXT(G24,"hh:mm")&amp;"-"&amp;TEXT(G24+(H24/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>21:00-21:30</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="19" t="n">
         <f aca="false">H24/24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G24" s="20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="22" t="n">
+        <v>21</v>
+      </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="n">
         <f aca="false">IF(I25 &gt; 0, DATE($K$12, $J$12, I25), 0)</f>
-        <v>0</v>
+        <v>41447</v>
       </c>
       <c r="B25" s="17" t="n">
         <f aca="false">A25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="18" t="n">
+        <v>41447</v>
+      </c>
+      <c r="C25" s="18" t="str">
         <f aca="false">IF(G25 &gt; 0, TEXT(G25,"hh:mm")&amp;"-"&amp;TEXT(G25+(H25/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>21:00-21:30</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="19" t="n">
         <f aca="false">H25/24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="22" t="n">
+        <v>23</v>
+      </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
         <f aca="false">IF(I26 &gt; 0, DATE($K$12, $J$12, I26), 0)</f>
-        <v>0</v>
+        <v>41449</v>
       </c>
       <c r="B26" s="17" t="n">
         <f aca="false">A26</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="18" t="n">
+        <v>41449</v>
+      </c>
+      <c r="C26" s="18" t="str">
         <f aca="false">IF(G26 &gt; 0, TEXT(G26,"hh:mm")&amp;"-"&amp;TEXT(G26+(H26/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>20:30-21:00</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="19" t="n">
         <f aca="false">H26/24</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G26" s="20" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="22" t="n">
+        <v>25</v>
+      </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <f aca="false">IF(I27 &gt; 0, DATE($K$12, $J$12, I27), 0)</f>
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="B27" s="17" t="n">
         <f aca="false">A27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="18" t="n">
+        <v>41450</v>
+      </c>
+      <c r="C27" s="18" t="str">
         <f aca="false">IF(G27 &gt; 0, TEXT(G27,"hh:mm")&amp;"-"&amp;TEXT(G27+(H27/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>16:00-21:00</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="19" t="n">
         <f aca="false">H27/24</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="22" t="n">
+        <v>26</v>
+      </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="n">
         <f aca="false">IF(I28 &gt; 0, DATE($K$12, $J$12, I28), 0)</f>
-        <v>0</v>
+        <v>41451</v>
       </c>
       <c r="B28" s="17" t="n">
         <f aca="false">A28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="18" t="n">
+        <v>41451</v>
+      </c>
+      <c r="C28" s="18" t="str">
         <f aca="false">IF(G28 &gt; 0, TEXT(G28,"hh:mm")&amp;"-"&amp;TEXT(G28+(H28/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>12:00-17:00</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="19" t="n">
         <f aca="false">H28/24</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="22" t="n">
+        <v>27</v>
+      </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
         <f aca="false">IF(I29 &gt; 0, DATE($K$12, $J$12, I29), 0)</f>
-        <v>0</v>
+        <v>41452</v>
       </c>
       <c r="B29" s="17" t="n">
         <f aca="false">A29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="18" t="n">
+        <v>41452</v>
+      </c>
+      <c r="C29" s="18" t="str">
         <f aca="false">IF(G29 &gt; 0, TEXT(G29,"hh:mm")&amp;"-"&amp;TEXT(G29+(H29/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>12:00-17:00</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="19" t="n">
         <f aca="false">H29/24</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="22" t="n">
+        <v>28</v>
+      </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="n">
         <f aca="false">IF(I30 &gt; 0, DATE($K$12, $J$12, I30), 0)</f>
-        <v>0</v>
+        <v>41453</v>
       </c>
       <c r="B30" s="17" t="n">
         <f aca="false">A30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="18" t="n">
+        <v>41453</v>
+      </c>
+      <c r="C30" s="18" t="str">
         <f aca="false">IF(G30 &gt; 0, TEXT(G30,"hh:mm")&amp;"-"&amp;TEXT(G30+(H30/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>12:00-17:30</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="19" t="n">
         <f aca="false">H30/24</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I30" s="22" t="n">
+        <v>29</v>
+      </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="n">
         <f aca="false">IF(I31 &gt; 0, DATE($K$12, $J$12, I31), 0)</f>
-        <v>0</v>
+        <v>41454</v>
       </c>
       <c r="B31" s="17" t="n">
         <f aca="false">A31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="18" t="n">
+        <v>41454</v>
+      </c>
+      <c r="C31" s="18" t="str">
         <f aca="false">IF(G31 &gt; 0, TEXT(G31,"hh:mm")&amp;"-"&amp;TEXT(G31+(H31/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>14:00-19:00</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19" t="n">
         <f aca="false">H31/24</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="22" t="n">
+        <v>30</v>
+      </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
@@ -1635,7 +1680,7 @@
       <c r="D40" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="26" t="n">
+      <c r="E40" s="19" t="n">
         <f aca="false">H40/24</f>
         <v>0</v>
       </c>
@@ -1645,57 +1690,57 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" s="29" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
+    <row r="41" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28" t="n">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27" t="n">
         <f aca="false">SUM(H12:H40)/24</f>
-        <v>0.243055555555556</v>
-      </c>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" s="33" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+        <v>1.4375</v>
+      </c>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" s="32" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" s="38" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" s="40" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39" t="s">
+    <row r="44" s="37" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" s="39" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="D45" s="39" t="s">
+      <c r="B45" s="38"/>
+      <c r="D45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Dokumente/Nachweise_offiziell/2017_Juni.xlsx
+++ b/Dokumente/Nachweise_offiziell/2017_Juni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="160" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,72 +43,85 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
-    <t>Arbeitsstundennachweis für studentische Hilfskräfte</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Tim-Niklas Reck</t>
-  </si>
-  <si>
-    <t>Projekt o. Kst-stelle:</t>
-  </si>
-  <si>
-    <t>FB/ FE:</t>
-  </si>
-  <si>
-    <t>Zeitraum:</t>
-  </si>
-  <si>
-    <t>Hinweis: Gemäß § 4 Arbeitszeitgesetz ist die Arbeit durch im voraus feststehende Ruhepausen von mindestens 30 Minuten bei einer Arbeitszeit von mehr als sechs bis zu neun Stunden und 45 Minuten bei einer Arbeitszeit von mehr als neun Stunden insgesamt zu unterbrechen.</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Wochen-      tag</t>
-  </si>
-  <si>
-    <t>Arbeitszeit                     von - bis</t>
-  </si>
-  <si>
-    <t>Pausen                        von - bis</t>
-  </si>
-  <si>
-    <t>tats. Arbeitszeit                  Std. Min.</t>
-  </si>
-  <si>
-    <t>Startzeit</t>
-  </si>
-  <si>
-    <t>Stunden gearbeitet</t>
-  </si>
-  <si>
-    <t>Tag (im Monat)</t>
-  </si>
-  <si>
-    <t>Monat</t>
-  </si>
-  <si>
-    <t>Jahr</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Summe tats. Arbeitszeit gem. vertraglicher Stundenzahl:</t>
+    <t xml:space="preserve">Arbeitsstundennachweis für studentische Hilfskräfte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim-Niklas Reck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projekt o. Kst-stelle:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB/ FE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeitraum:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweis: Gemäß § 4 Arbeitszeitgesetz ist die Arbeit durch im voraus feststehende Ruhepausen von mindestens 30 Minuten bei einer Arbeitszeit von mehr als sechs bis zu neun Stunden und 45 Minuten bei einer Arbeitszeit von mehr als neun Stunden insgesamt zu unterbrechen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochen-      tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitszeit                     von - bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pausen                        von - bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tats. Arbeitszeit                  Std. Min.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden gearbeitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag (im Monat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summe tats. Arbeitszeit gem. vertraglicher Stundenzahl:</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Mit meiner Unterschrift bestätige ich, dass ich meine abgeleistete</t>
     </r>
     <r>
@@ -157,14 +170,14 @@
     </r>
   </si>
   <si>
-    <t>Die Richtigkeit der Eintragungen
+    <t xml:space="preserve">Die Richtigkeit der Eintragungen
        wird hiermit bestätigt.</t>
   </si>
   <si>
-    <t>Unterschrift stud. Hilfskraft</t>
-  </si>
-  <si>
-    <t>Unterschrift FE-Leiter/ Projektleiter</t>
+    <t xml:space="preserve">Unterschrift stud. Hilfskraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterschrift FE-Leiter/ Projektleiter</t>
   </si>
 </sst>
 </file>
@@ -172,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MMMM\ YYYY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="167" formatCode="DDDD"/>
@@ -657,18 +670,18 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,12 +1789,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1802,12 +1815,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Dokumente/Nachweise_offiziell/2017_Juni.xlsx
+++ b/Dokumente/Nachweise_offiziell/2017_Juni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t xml:space="preserve">Arbeitsstundennachweis für studentische Hilfskräfte</t>
   </si>
@@ -195,7 +196,7 @@
     <numFmt numFmtId="171" formatCode="[H]&quot;h &quot;MM&quot;min&quot;"/>
     <numFmt numFmtId="172" formatCode="[HH]:MM"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -217,6 +218,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -256,13 +338,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -270,14 +345,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -292,7 +359,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,23 +368,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -405,7 +523,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,13 +547,61 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,87 +609,87 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -535,27 +701,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -563,7 +729,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,11 +737,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,40 +749,56 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -670,18 +852,18 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="A1:E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,25 +1652,11 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="n">
-        <f aca="false">IF(I32 &gt; 0, DATE($K$12, $J$12, I32), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="17" t="n">
-        <f aca="false">A32</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="18" t="n">
-        <f aca="false">IF(G32 &gt; 0, TEXT(G32,"hh:mm")&amp;"-"&amp;TEXT(G32+(H32/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="19" t="n">
-        <f aca="false">H32/24</f>
-        <v>0</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
@@ -1496,25 +1664,11 @@
       <c r="K32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="n">
-        <f aca="false">IF(I33 &gt; 0, DATE($K$12, $J$12, I33), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B33" s="17" t="n">
-        <f aca="false">A33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="18" t="n">
-        <f aca="false">IF(G33 &gt; 0, TEXT(G33,"hh:mm")&amp;"-"&amp;TEXT(G33+(H33/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="19" t="n">
-        <f aca="false">H33/24</f>
-        <v>0</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
       <c r="G33" s="20"/>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
@@ -1522,25 +1676,11 @@
       <c r="K33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="n">
-        <f aca="false">IF(I34 &gt; 0, DATE($K$12, $J$12, I34), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="17" t="n">
-        <f aca="false">A34</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="18" t="n">
-        <f aca="false">IF(G34 &gt; 0, TEXT(G34,"hh:mm")&amp;"-"&amp;TEXT(G34+(H34/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="19" t="n">
-        <f aca="false">H34/24</f>
-        <v>0</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
@@ -1548,25 +1688,11 @@
       <c r="K34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="n">
-        <f aca="false">IF(I35 &gt; 0, DATE($K$12, $J$12, I35), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="17" t="n">
-        <f aca="false">A35</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="18" t="n">
-        <f aca="false">IF(G35 &gt; 0, TEXT(G35,"hh:mm")&amp;"-"&amp;TEXT(G35+(H35/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="19" t="n">
-        <f aca="false">H35/24</f>
-        <v>0</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
       <c r="G35" s="20"/>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
@@ -1574,25 +1700,11 @@
       <c r="K35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="n">
-        <f aca="false">IF(I36 &gt; 0, DATE($K$12, $J$12, I36), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="17" t="n">
-        <f aca="false">A36</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="18" t="n">
-        <f aca="false">IF(G36 &gt; 0, TEXT(G36,"hh:mm")&amp;"-"&amp;TEXT(G36+(H36/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="19" t="n">
-        <f aca="false">H36/24</f>
-        <v>0</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
@@ -1600,25 +1712,11 @@
       <c r="K36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="n">
-        <f aca="false">IF(I37 &gt; 0, DATE($K$12, $J$12, I37), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="17" t="n">
-        <f aca="false">A37</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="18" t="n">
-        <f aca="false">IF(G37 &gt; 0, TEXT(G37,"hh:mm")&amp;"-"&amp;TEXT(G37+(H37/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="19" t="n">
-        <f aca="false">H37/24</f>
-        <v>0</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
       <c r="G37" s="20"/>
       <c r="H37" s="21"/>
       <c r="I37" s="22"/>
@@ -1626,25 +1724,11 @@
       <c r="K37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="n">
-        <f aca="false">IF(I38 &gt; 0, DATE($K$12, $J$12, I38), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="17" t="n">
-        <f aca="false">A38</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="18" t="n">
-        <f aca="false">IF(G38 &gt; 0, TEXT(G38,"hh:mm")&amp;"-"&amp;TEXT(G38+(H38/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="19" t="n">
-        <f aca="false">H38/24</f>
-        <v>0</v>
-      </c>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="21"/>
       <c r="I38" s="22"/>
@@ -1652,25 +1736,11 @@
       <c r="K38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="n">
-        <f aca="false">IF(I39 &gt; 0, DATE($K$12, $J$12, I39), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="17" t="n">
-        <f aca="false">A39</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="18" t="n">
-        <f aca="false">IF(G39 &gt; 0, TEXT(G39,"hh:mm")&amp;"-"&amp;TEXT(G39+(H39/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="19" t="n">
-        <f aca="false">H39/24</f>
-        <v>0</v>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
       <c r="G39" s="20"/>
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
@@ -1678,25 +1748,11 @@
       <c r="K39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="n">
-        <f aca="false">IF(I40 &gt; 0, DATE($K$12, $J$12, I40), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="17" t="n">
-        <f aca="false">A40</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="18" t="n">
-        <f aca="false">IF(G40 &gt; 0, TEXT(G40,"hh:mm")&amp;"-"&amp;TEXT(G40+(H40/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="19" t="n">
-        <f aca="false">H40/24</f>
-        <v>0</v>
-      </c>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
@@ -1773,7 +1829,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.196527777777778" top="0.747916666666667" bottom="0.196527777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1788,18 +1844,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A32:E40 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1814,18 +1870,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A32:E40 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
